--- a/test_back.xlsx
+++ b/test_back.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\report_card\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\report_card\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="412" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5897" tabRatio="412"/>
   </bookViews>
   <sheets>
     <sheet name="машинисты" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="188">
   <si>
     <t>Код</t>
   </si>
@@ -457,9 +457,6 @@
     <t>42</t>
   </si>
   <si>
-    <t>8   20/24</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
@@ -478,9 +475,6 @@
     <t>31.05.2022г.</t>
   </si>
   <si>
-    <t xml:space="preserve">8 </t>
-  </si>
-  <si>
     <t>180</t>
   </si>
   <si>
@@ -583,7 +577,19 @@
     <t>/8</t>
   </si>
   <si>
+    <t xml:space="preserve"> 20/</t>
+  </si>
+  <si>
     <t>/8 20/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/8 </t>
+  </si>
+  <si>
+    <t>//8 20/</t>
+  </si>
+  <si>
+    <t>/8 20/24</t>
   </si>
 </sst>
 </file>
@@ -659,7 +665,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -682,6 +688,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -828,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -933,12 +951,6 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -951,9 +963,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -962,202 +971,224 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1168,31 +1199,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1500,96 +1506,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:R40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" customWidth="1"/>
     <col min="4" max="14" width="6" customWidth="1"/>
     <col min="15" max="15" width="7" customWidth="1"/>
     <col min="16" max="16" width="6" customWidth="1"/>
-    <col min="17" max="17" width="9.5" customWidth="1"/>
+    <col min="17" max="17" width="9.453125" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="5.5" customWidth="1"/>
-    <col min="20" max="20" width="5.1640625" customWidth="1"/>
-    <col min="21" max="21" width="4.1640625" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" customWidth="1"/>
-    <col min="23" max="23" width="4.5" customWidth="1"/>
-    <col min="24" max="24" width="5.1640625" customWidth="1"/>
+    <col min="19" max="19" width="5.453125" customWidth="1"/>
+    <col min="20" max="20" width="5.1796875" customWidth="1"/>
+    <col min="21" max="21" width="4.1796875" customWidth="1"/>
+    <col min="22" max="22" width="5.36328125" customWidth="1"/>
+    <col min="23" max="23" width="4.453125" customWidth="1"/>
+    <col min="24" max="24" width="5.1796875" customWidth="1"/>
     <col min="25" max="25" width="4" customWidth="1"/>
     <col min="26" max="26" width="5" customWidth="1"/>
-    <col min="27" max="27" width="6.83203125" customWidth="1"/>
+    <col min="27" max="27" width="6.81640625" customWidth="1"/>
     <col min="28" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="6.6640625" customWidth="1"/>
-    <col min="30" max="30" width="7.33203125" customWidth="1"/>
+    <col min="29" max="29" width="6.6328125" customWidth="1"/>
+    <col min="30" max="30" width="7.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:40" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
       <c r="AD1" s="9"/>
       <c r="AE1" s="9"/>
       <c r="AF1" s="9"/>
     </row>
-    <row r="2" spans="1:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:40" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -1598,214 +1604,214 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88" t="s">
+    <row r="3" spans="1:40" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="88"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
     </row>
-    <row r="4" spans="1:40" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="95" t="s">
+    <row r="4" spans="1:40" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:40" s="6" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" s="6" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q5" s="15"/>
-      <c r="R5" s="113" t="s">
+      <c r="R5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97" t="s">
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="92" t="s">
+      <c r="Z5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
     </row>
-    <row r="6" spans="1:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q6" s="15"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="93" t="s">
+      <c r="Z6" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AA6" s="93"/>
-      <c r="AB6" s="93" t="s">
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="93"/>
+      <c r="AC6" s="94"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
     </row>
-    <row r="7" spans="1:40" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K7" s="99" t="s">
+    <row r="7" spans="1:40" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="92">
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="68">
         <v>5</v>
       </c>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="116">
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="79">
         <v>44712</v>
       </c>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="94" t="s">
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="94" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC7" s="94"/>
+      <c r="AC7" s="95"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
     </row>
-    <row r="8" spans="1:40" s="14" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J8" s="99" t="s">
+    <row r="8" spans="1:40" s="14" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-    </row>
-    <row r="9" spans="1:40" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101" t="s">
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+    </row>
+    <row r="9" spans="1:40" ht="21.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="75" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="T9" s="91" t="s">
+      <c r="T9" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91" t="s">
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="106" t="s">
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="AC9" s="106"/>
-    </row>
-    <row r="10" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="102"/>
-      <c r="B10" s="76"/>
+      <c r="AC9" s="91"/>
+    </row>
+    <row r="10" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="100"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="28" t="s">
         <v>11</v>
       </c>
@@ -1815,13 +1821,13 @@
       <c r="E10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="50">
         <v>5</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="50">
         <v>6</v>
       </c>
       <c r="I10" s="28" t="s">
@@ -1836,13 +1842,13 @@
       <c r="L10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="57" t="s">
+      <c r="M10" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="57" t="s">
+      <c r="N10" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="57" t="s">
+      <c r="O10" s="50" t="s">
         <v>23</v>
       </c>
       <c r="P10" s="28" t="s">
@@ -1851,132 +1857,132 @@
       <c r="Q10" s="28">
         <v>15</v>
       </c>
-      <c r="R10" s="57" t="s">
+      <c r="R10" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="76"/>
-      <c r="T10" s="77" t="s">
+      <c r="S10" s="102"/>
+      <c r="T10" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="U10" s="77" t="s">
+      <c r="U10" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="V10" s="77" t="s">
+      <c r="V10" s="109" t="s">
         <v>57</v>
       </c>
       <c r="W10" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="X10" s="96" t="s">
+      <c r="X10" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="Y10" s="96" t="s">
+      <c r="Y10" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="Z10" s="96" t="s">
+      <c r="Z10" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="AA10" s="96" t="s">
+      <c r="AA10" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="106"/>
-    </row>
-    <row r="11" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="102"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="66" t="s">
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="91"/>
+    </row>
+    <row r="11" spans="1:40" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="100"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="66" t="s">
+      <c r="J11" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="66" t="s">
+      <c r="K11" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="66" t="s">
+      <c r="L11" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="66" t="s">
+      <c r="M11" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="66" t="s">
+      <c r="N11" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="67" t="s">
+      <c r="O11" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="67">
+      <c r="P11" s="57">
         <v>29</v>
       </c>
-      <c r="Q11" s="66">
+      <c r="Q11" s="56">
         <v>30</v>
       </c>
-      <c r="R11" s="66">
+      <c r="R11" s="56">
         <v>31</v>
       </c>
-      <c r="S11" s="76"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
       <c r="W11" s="104"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="65" t="s">
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="AC11" s="65" t="s">
+      <c r="AC11" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="AD11" s="65" t="s">
+      <c r="AD11" s="55" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="115">
+      <c r="C12" s="76">
         <v>3</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="115"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
       <c r="S12" s="21">
         <v>4</v>
       </c>
@@ -2014,11 +2020,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="79">
+    <row r="13" spans="1:40" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72">
         <v>1</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="74" t="s">
         <v>88</v>
       </c>
       <c r="C13" s="33" t="s">
@@ -2027,82 +2033,82 @@
       <c r="D13" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="44" t="s">
+      <c r="E13" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="G13" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="L13" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="M13" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="44" t="s">
+      <c r="G13" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="O13" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="P13" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="R13" s="55" t="s">
+      <c r="O13" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="P13" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="S13" s="68" t="s">
+      <c r="S13" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="T13" s="73" t="s">
+      <c r="T13" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="W13" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="X13" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="80"/>
+      <c r="AB13" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC13" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD13" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="W13" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="X13" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y13" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC13" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD13" s="70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="79"/>
-      <c r="B14" s="111"/>
+    </row>
+    <row r="14" spans="1:40" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="33" t="s">
         <v>39</v>
       </c>
@@ -2112,38 +2118,38 @@
       <c r="E14" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="44" t="s">
+      <c r="F14" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="I14" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="M14" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="44" t="s">
+      <c r="H14" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="P14" s="43" t="s">
-        <v>150</v>
+      <c r="P14" s="41" t="s">
+        <v>185</v>
       </c>
       <c r="Q14" s="33" t="s">
         <v>48</v>
@@ -2151,24 +2157,24 @@
       <c r="R14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="S14" s="73"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="71"/>
-    </row>
-    <row r="15" spans="1:40" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="79">
+      <c r="S14" s="77"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="84"/>
+    </row>
+    <row r="15" spans="1:40" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72">
         <v>2</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="73" t="s">
         <v>89</v>
       </c>
       <c r="C15" s="33" t="s">
@@ -2216,39 +2222,39 @@
       <c r="Q15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="R15" s="50" t="s">
+      <c r="R15" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="S15" s="73" t="s">
+      <c r="S15" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="T15" s="73" t="s">
+      <c r="T15" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70" t="s">
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Y15" s="70" t="s">
+      <c r="Y15" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70" t="s">
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="80"/>
+      <c r="AB15" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="AC15" s="70" t="s">
+      <c r="AC15" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="AD15" s="70" t="s">
+      <c r="AD15" s="80" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="79"/>
-      <c r="B16" s="80"/>
+    <row r="16" spans="1:40" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="72"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="33" t="s">
         <v>48</v>
       </c>
@@ -2297,24 +2303,24 @@
       <c r="R16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="71"/>
-    </row>
-    <row r="17" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="79">
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
+    </row>
+    <row r="17" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="72">
         <v>3</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="73" t="s">
         <v>90</v>
       </c>
       <c r="C17" s="33" t="s">
@@ -2324,34 +2330,34 @@
         <v>116</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="J17" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="44" t="s">
         <v>39</v>
       </c>
       <c r="L17" s="36" t="s">
         <v>116</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="N17" s="38" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="O17" s="33" t="s">
         <v>39</v>
@@ -2362,79 +2368,79 @@
       <c r="Q17" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="R17" s="42" t="s">
+      <c r="R17" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="S17" s="74" t="s">
+      <c r="S17" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="T17" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89" t="s">
+      <c r="T17" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="U17" s="92"/>
+      <c r="V17" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC17" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD17" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="82" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC17" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD17" s="69" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-      <c r="B18" s="80"/>
+    </row>
+    <row r="18" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="44" t="s">
+      <c r="D18" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="K18" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="L18" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="44" t="s">
+      <c r="F18" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="N18" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="O18" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="43" t="s">
+      <c r="N18" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="P18" s="41" t="s">
         <v>39</v>
       </c>
       <c r="Q18" s="33" t="s">
@@ -2443,24 +2449,24 @@
       <c r="R18" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="S18" s="68"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
-    </row>
-    <row r="19" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="79">
+      <c r="S18" s="83"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82"/>
+    </row>
+    <row r="19" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72">
         <v>4</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="74" t="s">
         <v>91</v>
       </c>
       <c r="C19" s="33" t="s">
@@ -2482,10 +2488,10 @@
         <v>116</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="K19" s="33" t="s">
         <v>39</v>
@@ -2506,42 +2512,42 @@
         <v>116</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="R19" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="R19" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="S19" s="68" t="s">
+      <c r="S19" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="T19" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68" t="s">
+      <c r="T19" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69" t="s">
+      <c r="W19" s="82"/>
+      <c r="X19" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69" t="s">
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="AC19" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD19" s="70" t="s">
+      <c r="AC19" s="82" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="79"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="41" t="s">
+      <c r="AD19" s="80" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="72"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="59" t="s">
         <v>127</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -2563,10 +2569,10 @@
         <v>116</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="K20" s="38" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="L20" s="33" t="s">
         <v>39</v>
@@ -2587,26 +2593,26 @@
         <v>116</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="71"/>
-    </row>
-    <row r="21" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="79">
+        <v>187</v>
+      </c>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="84"/>
+    </row>
+    <row r="21" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="72">
         <v>5</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="73" t="s">
         <v>92</v>
       </c>
       <c r="C21" s="33" t="s">
@@ -2615,80 +2621,80 @@
       <c r="D21" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="44" t="s">
+      <c r="E21" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="L21" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="M21" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="44" t="s">
+      <c r="G21" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="O21" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="P21" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="R21" s="58" t="s">
+      <c r="O21" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q21" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="S21" s="68" t="s">
+      <c r="S21" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="T21" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="W21" s="70" t="s">
+      <c r="T21" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="W21" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="X21" s="70" t="s">
+      <c r="X21" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="70"/>
-      <c r="AB21" s="70" t="s">
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="AC21" s="70" t="s">
+      <c r="AC21" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="AD21" s="70" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="79"/>
-      <c r="B22" s="80"/>
+      <c r="AD21" s="80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="72"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="33" t="s">
         <v>39</v>
       </c>
@@ -2698,63 +2704,63 @@
       <c r="E22" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="44" t="s">
+      <c r="F22" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="M22" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="N22" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="44" t="s">
+      <c r="H22" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="N22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="P22" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q22" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="R22" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="S22" s="73"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
-      <c r="AC22" s="82"/>
-      <c r="AD22" s="71"/>
-    </row>
-    <row r="23" spans="1:30" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="107">
+      <c r="P22" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q22" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="R22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" s="77"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="84"/>
+    </row>
+    <row r="23" spans="1:30" s="27" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="85">
         <v>6</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="73" t="s">
         <v>93</v>
       </c>
       <c r="C23" s="33" t="s">
@@ -2776,10 +2782,10 @@
         <v>116</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="K23" s="33" t="s">
         <v>39</v>
@@ -2800,42 +2806,42 @@
         <v>116</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="R23" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="R23" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="S23" s="68" t="s">
+      <c r="S23" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="T23" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68" t="s">
+      <c r="T23" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69" t="s">
+      <c r="W23" s="82"/>
+      <c r="X23" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="69"/>
-      <c r="AB23" s="69" t="s">
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="AC23" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD23" s="69" t="s">
+      <c r="AC23" s="82" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="107"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="58" t="s">
+      <c r="AD23" s="82" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="27" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="85"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="59" t="s">
         <v>127</v>
       </c>
       <c r="D24" s="33" t="s">
@@ -2857,10 +2863,10 @@
         <v>116</v>
       </c>
       <c r="J24" s="33" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="L24" s="33" t="s">
         <v>39</v>
@@ -2881,26 +2887,26 @@
         <v>116</v>
       </c>
       <c r="R24" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="69"/>
-      <c r="AB24" s="69"/>
-      <c r="AC24" s="69"/>
-      <c r="AD24" s="69"/>
-    </row>
-    <row r="25" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="79">
+        <v>187</v>
+      </c>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="82"/>
+    </row>
+    <row r="25" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="72">
         <v>7</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="73" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="33" t="s">
@@ -2948,41 +2954,41 @@
       <c r="Q25" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="R25" s="41" t="s">
+      <c r="R25" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="S25" s="68" t="s">
+      <c r="S25" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="T25" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="W25" s="68"/>
-      <c r="X25" s="69" t="s">
+      <c r="T25" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="W25" s="83"/>
+      <c r="X25" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Y25" s="69" t="s">
+      <c r="Y25" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC25" s="69" t="s">
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC25" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="AD25" s="69" t="s">
+      <c r="AD25" s="82" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="79"/>
-      <c r="B26" s="80"/>
+    <row r="26" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="33" t="s">
         <v>48</v>
       </c>
@@ -3004,63 +3010,63 @@
       <c r="I26" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="J26" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="N26" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="O26" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="63" t="s">
+      <c r="J26" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="54" t="s">
         <v>116</v>
       </c>
       <c r="Q26" s="37" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="R26" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="69"/>
-      <c r="AB26" s="83"/>
-      <c r="AC26" s="69"/>
-      <c r="AD26" s="69"/>
-    </row>
-    <row r="27" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="79">
+      <c r="S26" s="83"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="83"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="106"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="82"/>
+    </row>
+    <row r="27" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="72">
         <v>8</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="73" t="s">
         <v>95</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>133</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="59" t="s">
         <v>39</v>
       </c>
       <c r="G27" s="33" t="s">
@@ -3076,10 +3082,10 @@
         <v>116</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="L27" s="38" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="M27" s="33" t="s">
         <v>39</v>
@@ -3096,73 +3102,73 @@
       <c r="Q27" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R27" s="41" t="s">
+      <c r="R27" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="S27" s="73" t="s">
+      <c r="S27" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="T27" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="W27" s="73" t="s">
+      <c r="T27" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="W27" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="X27" s="70" t="s">
+      <c r="X27" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="Y27" s="70"/>
-      <c r="Z27" s="70"/>
-      <c r="AA27" s="70"/>
-      <c r="AB27" s="70" t="s">
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="AC27" s="69" t="s">
+      <c r="AC27" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="AD27" s="69" t="s">
+      <c r="AD27" s="82" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="79"/>
-      <c r="B28" s="80"/>
+    <row r="28" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="72"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="36" t="s">
         <v>116</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="44" t="s">
         <v>39</v>
       </c>
       <c r="K28" s="36" t="s">
         <v>116</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="N28" s="33" t="s">
         <v>39</v>
@@ -3176,66 +3182,66 @@
       <c r="Q28" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="R28" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="S28" s="74"/>
-      <c r="T28" s="74"/>
-      <c r="U28" s="74"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="74"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="71"/>
-      <c r="AA28" s="71"/>
-      <c r="AB28" s="71"/>
-      <c r="AC28" s="69"/>
-      <c r="AD28" s="69"/>
-    </row>
-    <row r="29" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="79">
+      <c r="R28" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="84"/>
+      <c r="Y28" s="84"/>
+      <c r="Z28" s="84"/>
+      <c r="AA28" s="84"/>
+      <c r="AB28" s="84"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="82"/>
+    </row>
+    <row r="29" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="72">
         <v>9</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="73" t="s">
         <v>96</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="J29" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="K29" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="44" t="s">
+      <c r="E29" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="M29" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="N29" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="O29" s="43" t="s">
+      <c r="M29" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="N29" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="O29" s="41" t="s">
         <v>39</v>
       </c>
       <c r="P29" s="33" t="s">
@@ -3244,41 +3250,41 @@
       <c r="Q29" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="R29" s="49" t="s">
+      <c r="R29" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="S29" s="74" t="s">
+      <c r="S29" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="T29" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="W29" s="81"/>
+      <c r="X29" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y29" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z29" s="81"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC29" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="T29" s="89" t="s">
+      <c r="AD29" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="U29" s="89"/>
-      <c r="V29" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y29" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="82"/>
-      <c r="AB29" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC29" s="71" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD29" s="69" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="79"/>
-      <c r="B30" s="80"/>
+    </row>
+    <row r="30" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="72"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="33" t="s">
         <v>100</v>
       </c>
@@ -3289,10 +3295,10 @@
         <v>116</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="H30" s="33" t="s">
         <v>39</v>
@@ -3306,163 +3312,163 @@
       <c r="K30" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="L30" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="M30" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="N30" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="O30" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="P30" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q30" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="R30" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="S30" s="68"/>
-      <c r="T30" s="74"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="74"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="70"/>
-    </row>
-    <row r="31" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="79">
+      <c r="L30" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="P30" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q30" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="R30" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="S30" s="83"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="84"/>
+      <c r="X30" s="84"/>
+      <c r="Y30" s="84"/>
+      <c r="Z30" s="84"/>
+      <c r="AA30" s="84"/>
+      <c r="AB30" s="84"/>
+      <c r="AC30" s="82"/>
+      <c r="AD30" s="80"/>
+    </row>
+    <row r="31" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="72">
         <v>10</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="N31" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="O31" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="P31" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q31" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="R31" s="46" t="s">
+      <c r="C31" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="S31" s="72" t="s">
+      <c r="S31" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="T31" s="72" t="s">
-        <v>167</v>
-      </c>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72" t="s">
+      <c r="T31" s="111" t="s">
+        <v>165</v>
+      </c>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="W31" s="72"/>
-      <c r="X31" s="84" t="s">
+      <c r="W31" s="111"/>
+      <c r="X31" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="84"/>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC31" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD31" s="69" t="s">
+      <c r="Y31" s="107"/>
+      <c r="Z31" s="107"/>
+      <c r="AA31" s="107"/>
+      <c r="AB31" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC31" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD31" s="82" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="79"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="51" t="s">
+    <row r="32" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="72"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="60" t="s">
         <v>39</v>
       </c>
       <c r="M32" s="36" t="s">
         <v>116</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="O32" s="38" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="P32" s="33" t="s">
         <v>39</v>
@@ -3473,36 +3479,36 @@
       <c r="R32" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="84"/>
-      <c r="Y32" s="84"/>
-      <c r="Z32" s="84"/>
-      <c r="AA32" s="84"/>
-      <c r="AB32" s="85"/>
-      <c r="AC32" s="69"/>
-      <c r="AD32" s="69"/>
-    </row>
-    <row r="33" spans="1:30" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="79">
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="107"/>
+      <c r="Y32" s="107"/>
+      <c r="Z32" s="107"/>
+      <c r="AA32" s="107"/>
+      <c r="AB32" s="108"/>
+      <c r="AC32" s="82"/>
+      <c r="AD32" s="82"/>
+    </row>
+    <row r="33" spans="1:30" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="72">
         <v>11</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="73" t="s">
         <v>121</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>133</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="59" t="s">
         <v>39</v>
       </c>
       <c r="G33" s="33" t="s">
@@ -3518,10 +3524,10 @@
         <v>116</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="M33" s="33" t="s">
         <v>39</v>
@@ -3538,73 +3544,73 @@
       <c r="Q33" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R33" s="58" t="s">
+      <c r="R33" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="S33" s="74" t="s">
+      <c r="S33" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="T33" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="W33" s="73" t="s">
+      <c r="T33" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="U33" s="77"/>
+      <c r="V33" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="W33" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="X33" s="70" t="s">
+      <c r="X33" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="Y33" s="70"/>
-      <c r="Z33" s="70"/>
-      <c r="AA33" s="70"/>
-      <c r="AB33" s="70" t="s">
+      <c r="Y33" s="80"/>
+      <c r="Z33" s="80"/>
+      <c r="AA33" s="80"/>
+      <c r="AB33" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="AC33" s="71" t="s">
+      <c r="AC33" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="AD33" s="82" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="79"/>
-      <c r="B34" s="80"/>
+      <c r="AD33" s="81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="72"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="36" t="s">
         <v>116</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="I34" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="J34" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="J34" s="44" t="s">
         <v>39</v>
       </c>
       <c r="K34" s="36" t="s">
         <v>116</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="M34" s="38" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="N34" s="33" t="s">
         <v>39</v>
@@ -3618,27 +3624,27 @@
       <c r="Q34" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="R34" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="S34" s="68"/>
-      <c r="T34" s="74"/>
-      <c r="U34" s="74"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="74"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="69"/>
-      <c r="AD34" s="71"/>
-    </row>
-    <row r="35" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="79">
+      <c r="R34" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="S34" s="83"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="78"/>
+      <c r="V34" s="78"/>
+      <c r="W34" s="78"/>
+      <c r="X34" s="84"/>
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="84"/>
+      <c r="AA34" s="84"/>
+      <c r="AB34" s="84"/>
+      <c r="AC34" s="82"/>
+      <c r="AD34" s="84"/>
+    </row>
+    <row r="35" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="72">
         <v>12</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="73" t="s">
         <v>98</v>
       </c>
       <c r="C35" s="33" t="s">
@@ -3671,114 +3677,114 @@
       <c r="L35" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="M35" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="N35" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="O35" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="P35" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q35" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="R35" s="50" t="s">
+      <c r="M35" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="N35" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="P35" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q35" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="R35" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="S35" s="68" t="s">
+      <c r="S35" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="T35" s="69" t="s">
+      <c r="T35" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="69" t="s">
+      <c r="U35" s="83"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="83"/>
+      <c r="X35" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="Y35" s="69" t="s">
+      <c r="Y35" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
-      <c r="AB35" s="69"/>
-      <c r="AC35" s="69"/>
-      <c r="AD35" s="69"/>
-    </row>
-    <row r="36" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="79"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="H36" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="J36" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="K36" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="L36" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="M36" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="N36" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="O36" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="P36" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q36" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="R36" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="S36" s="68"/>
-      <c r="T36" s="81"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68"/>
-      <c r="X36" s="69"/>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="69"/>
-      <c r="AA36" s="69"/>
-      <c r="AB36" s="81"/>
-      <c r="AC36" s="69"/>
-      <c r="AD36" s="69"/>
-    </row>
-    <row r="37" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="79">
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="82"/>
+      <c r="AD35" s="82"/>
+    </row>
+    <row r="36" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="72"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="M36" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="N36" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="P36" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q36" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="R36" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="S36" s="83"/>
+      <c r="T36" s="105"/>
+      <c r="U36" s="83"/>
+      <c r="V36" s="83"/>
+      <c r="W36" s="83"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="82"/>
+      <c r="AA36" s="82"/>
+      <c r="AB36" s="105"/>
+      <c r="AC36" s="82"/>
+      <c r="AD36" s="82"/>
+    </row>
+    <row r="37" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="72">
         <v>13</v>
       </c>
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="73" t="s">
         <v>99</v>
       </c>
       <c r="C37" s="33" t="s">
@@ -3826,31 +3832,31 @@
       <c r="Q37" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R37" s="50" t="s">
+      <c r="R37" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="S37" s="68" t="s">
+      <c r="S37" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="T37" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="69" t="s">
+      <c r="T37" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="U37" s="83"/>
+      <c r="V37" s="83"/>
+      <c r="W37" s="83"/>
+      <c r="X37" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="69"/>
-      <c r="AA37" s="69"/>
-      <c r="AB37" s="69"/>
-      <c r="AC37" s="69"/>
-      <c r="AD37" s="69"/>
-    </row>
-    <row r="38" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="79"/>
-      <c r="B38" s="80"/>
+      <c r="Y37" s="82"/>
+      <c r="Z37" s="82"/>
+      <c r="AA37" s="82"/>
+      <c r="AB37" s="82"/>
+      <c r="AC37" s="82"/>
+      <c r="AD37" s="82"/>
+    </row>
+    <row r="38" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="72"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="33" t="s">
         <v>18</v>
       </c>
@@ -3899,24 +3905,24 @@
       <c r="R38" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="S38" s="68"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
-      <c r="W38" s="68"/>
-      <c r="X38" s="69"/>
-      <c r="Y38" s="69"/>
-      <c r="Z38" s="69"/>
-      <c r="AA38" s="69"/>
-      <c r="AB38" s="83"/>
-      <c r="AC38" s="69"/>
-      <c r="AD38" s="69"/>
-    </row>
-    <row r="39" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="79">
+      <c r="S38" s="83"/>
+      <c r="T38" s="105"/>
+      <c r="U38" s="83"/>
+      <c r="V38" s="83"/>
+      <c r="W38" s="83"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="82"/>
+      <c r="AA38" s="82"/>
+      <c r="AB38" s="106"/>
+      <c r="AC38" s="82"/>
+      <c r="AD38" s="82"/>
+    </row>
+    <row r="39" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="72">
         <v>14</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="73" t="s">
         <v>126</v>
       </c>
       <c r="C39" s="33" t="s">
@@ -3964,31 +3970,31 @@
       <c r="Q39" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R39" s="58" t="s">
+      <c r="R39" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="S39" s="68" t="s">
+      <c r="S39" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="T39" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
-      <c r="W39" s="68"/>
-      <c r="X39" s="69" t="s">
+      <c r="T39" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="U39" s="83"/>
+      <c r="V39" s="83"/>
+      <c r="W39" s="83"/>
+      <c r="X39" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="Y39" s="69"/>
-      <c r="Z39" s="69"/>
-      <c r="AA39" s="69"/>
-      <c r="AB39" s="69"/>
-      <c r="AC39" s="69"/>
-      <c r="AD39" s="69"/>
-    </row>
-    <row r="40" spans="1:30" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="79"/>
-      <c r="B40" s="80"/>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="82"/>
+      <c r="AA39" s="82"/>
+      <c r="AB39" s="82"/>
+      <c r="AC39" s="82"/>
+      <c r="AD39" s="82"/>
+    </row>
+    <row r="40" spans="1:30" ht="11.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="72"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="33" t="s">
         <v>18</v>
       </c>
@@ -4037,20 +4043,20 @@
       <c r="R40" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="S40" s="68"/>
-      <c r="T40" s="81"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="69"/>
-      <c r="Y40" s="69"/>
-      <c r="Z40" s="69"/>
-      <c r="AA40" s="69"/>
-      <c r="AB40" s="81"/>
-      <c r="AC40" s="69"/>
-      <c r="AD40" s="69"/>
-    </row>
-    <row r="41" spans="1:30" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S40" s="83"/>
+      <c r="T40" s="105"/>
+      <c r="U40" s="83"/>
+      <c r="V40" s="83"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="82"/>
+      <c r="Y40" s="82"/>
+      <c r="Z40" s="82"/>
+      <c r="AA40" s="82"/>
+      <c r="AB40" s="105"/>
+      <c r="AC40" s="82"/>
+      <c r="AD40" s="82"/>
+    </row>
+    <row r="41" spans="1:30" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
       <c r="C41" s="18"/>
@@ -4082,32 +4088,32 @@
       <c r="AC41" s="19"/>
       <c r="AD41" s="19"/>
     </row>
-    <row r="42" spans="1:30" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="114" t="s">
+    <row r="42" spans="1:30" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="108" t="s">
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="109"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="Q42" s="88" t="s">
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="Q42" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="R42" s="88"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="88"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="70"/>
+      <c r="U42" s="70"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6" t="s">
         <v>60</v>
@@ -4120,32 +4126,32 @@
       <c r="AC42" s="19"/>
       <c r="AD42" s="19"/>
     </row>
-    <row r="43" spans="1:30" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="114"/>
-      <c r="B43" s="114"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="86" t="s">
+    <row r="43" spans="1:30" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="M43" s="87" t="s">
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="M43" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N43" s="87"/>
-      <c r="O43" s="87"/>
-      <c r="Q43" s="87" t="s">
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="Q43" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="R43" s="87"/>
-      <c r="S43" s="87"/>
-      <c r="T43" s="87"/>
-      <c r="U43" s="87"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
+      <c r="U43" s="71"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
@@ -4156,32 +4162,32 @@
       <c r="AC43" s="19"/>
       <c r="AD43" s="19"/>
     </row>
-    <row r="44" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="114" t="s">
+    <row r="44" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="114"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="108" t="s">
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="108"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="Q44" s="88" t="s">
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="70"/>
+      <c r="Q44" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="R44" s="88"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="88"/>
+      <c r="R44" s="70"/>
+      <c r="S44" s="70"/>
+      <c r="T44" s="70"/>
+      <c r="U44" s="70"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6" t="s">
         <v>60</v>
@@ -4194,32 +4200,32 @@
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
     </row>
-    <row r="45" spans="1:30" ht="9.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="114"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="86" t="s">
+    <row r="45" spans="1:30" ht="9.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="M45" s="87" t="s">
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="M45" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="Q45" s="87" t="s">
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="Q45" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="R45" s="87"/>
-      <c r="S45" s="87"/>
-      <c r="T45" s="87"/>
-      <c r="U45" s="87"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
+      <c r="U45" s="71"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
@@ -4230,32 +4236,32 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
     </row>
-    <row r="46" spans="1:30" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="114" t="s">
+    <row r="46" spans="1:30" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="114"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="108" t="s">
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="109"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="Q46" s="88" t="s">
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+      <c r="Q46" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="R46" s="88"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="88"/>
-      <c r="U46" s="88"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="70"/>
+      <c r="T46" s="70"/>
+      <c r="U46" s="70"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6" t="s">
         <v>60</v>
@@ -4268,32 +4274,32 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
     </row>
-    <row r="47" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="114"/>
-      <c r="B47" s="114"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="105" t="s">
+    <row r="47" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="69"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="M47" s="112" t="s">
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="90"/>
+      <c r="M47" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N47" s="112"/>
-      <c r="O47" s="112"/>
-      <c r="Q47" s="87" t="s">
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="Q47" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="R47" s="87"/>
-      <c r="S47" s="87"/>
-      <c r="T47" s="87"/>
-      <c r="U47" s="87"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+      <c r="T47" s="71"/>
+      <c r="U47" s="71"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
@@ -4304,7 +4310,7 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -4336,7 +4342,7 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -4368,7 +4374,7 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -4400,7 +4406,7 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -4432,7 +4438,7 @@
       <c r="AC51" s="6"/>
       <c r="AD51" s="6"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -4466,6 +4472,230 @@
     </row>
   </sheetData>
   <mergeCells count="248">
+    <mergeCell ref="W37:W38"/>
+    <mergeCell ref="X37:X38"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="V33:V34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="AA37:AA38"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="T37:T38"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="AD39:AD40"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AD33:AD34"/>
+    <mergeCell ref="AD37:AD38"/>
+    <mergeCell ref="AB37:AB38"/>
+    <mergeCell ref="AC37:AC38"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="AB35:AB36"/>
+    <mergeCell ref="Z33:Z34"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="AB33:AB34"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="Z37:Z38"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="E43:K43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="AB39:AB40"/>
+    <mergeCell ref="AC39:AC40"/>
+    <mergeCell ref="AA39:AA40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="Z39:Z40"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="A3:AC3"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="U5:W6"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="J8:R8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="E47:K47"/>
+    <mergeCell ref="AB9:AC10"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="E46:K46"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="E45:K45"/>
+    <mergeCell ref="E44:K44"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="E42:K42"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="AA35:AA36"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="W25:W26"/>
     <mergeCell ref="M47:O47"/>
     <mergeCell ref="C9:R9"/>
     <mergeCell ref="R5:T6"/>
@@ -4490,230 +4720,6 @@
     <mergeCell ref="U33:U34"/>
     <mergeCell ref="U7:W7"/>
     <mergeCell ref="A42:D43"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="AA35:AA36"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="E46:K46"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="E45:K45"/>
-    <mergeCell ref="E44:K44"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="E42:K42"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="J8:R8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="E47:K47"/>
-    <mergeCell ref="AB9:AC10"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="A3:AC3"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="U5:W6"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="E43:K43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="AB39:AB40"/>
-    <mergeCell ref="AC39:AC40"/>
-    <mergeCell ref="AA39:AA40"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="X39:X40"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="Z39:Z40"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="AB37:AB38"/>
-    <mergeCell ref="AC37:AC38"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="AB35:AB36"/>
-    <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="AB33:AB34"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="Z37:Z38"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AD39:AD40"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AD33:AD34"/>
-    <mergeCell ref="AD37:AD38"/>
-    <mergeCell ref="S9:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="T37:T38"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="V37:V38"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="W37:W38"/>
-    <mergeCell ref="X37:X38"/>
-    <mergeCell ref="Y37:Y38"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="V33:V34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="AA37:AA38"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="AA15:AA16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
@@ -4724,93 +4730,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" customWidth="1"/>
-    <col min="4" max="16" width="6.5" customWidth="1"/>
-    <col min="17" max="17" width="7.83203125" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" customWidth="1"/>
+    <col min="4" max="16" width="6.453125" customWidth="1"/>
+    <col min="17" max="17" width="7.81640625" customWidth="1"/>
+    <col min="18" max="18" width="8.6328125" customWidth="1"/>
+    <col min="19" max="19" width="4.6328125" customWidth="1"/>
     <col min="20" max="20" width="6" customWidth="1"/>
-    <col min="21" max="21" width="3.5" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" customWidth="1"/>
-    <col min="23" max="23" width="5.5" customWidth="1"/>
-    <col min="24" max="25" width="4.1640625" customWidth="1"/>
-    <col min="26" max="27" width="4.83203125" customWidth="1"/>
-    <col min="28" max="28" width="4.5" customWidth="1"/>
+    <col min="21" max="21" width="3.453125" customWidth="1"/>
+    <col min="22" max="22" width="5.36328125" customWidth="1"/>
+    <col min="23" max="23" width="5.453125" customWidth="1"/>
+    <col min="24" max="25" width="4.1796875" customWidth="1"/>
+    <col min="26" max="27" width="4.81640625" customWidth="1"/>
+    <col min="28" max="28" width="4.453125" customWidth="1"/>
     <col min="29" max="30" width="6" customWidth="1"/>
-    <col min="31" max="31" width="5.5" customWidth="1"/>
+    <col min="31" max="31" width="5.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:41" s="6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
       <c r="AE1" s="9"/>
       <c r="AF1" s="9"/>
       <c r="AG1" s="9"/>
     </row>
-    <row r="2" spans="1:41" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:41" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -4820,220 +4826,220 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:41" s="6" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88" t="s">
+    <row r="3" spans="1:41" s="6" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="88"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
       <c r="AG3" s="10"/>
     </row>
-    <row r="4" spans="1:41" s="6" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="95" t="s">
+    <row r="4" spans="1:41" s="6" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="1:41" s="6" customFormat="1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:41" s="6" customFormat="1" ht="8.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q5" s="15"/>
-      <c r="R5" s="113" t="s">
+      <c r="R5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97" t="s">
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="92" t="s">
+      <c r="Z5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="92"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
     </row>
-    <row r="6" spans="1:41" s="6" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:41" s="6" customFormat="1" ht="9.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q6" s="15"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="93" t="s">
+      <c r="Z6" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AA6" s="93"/>
-      <c r="AB6" s="93"/>
-      <c r="AC6" s="93" t="s">
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="AD6" s="93"/>
+      <c r="AD6" s="94"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:41" s="6" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K7" s="99" t="s">
+    <row r="7" spans="1:41" s="6" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="126">
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="113">
         <v>5</v>
       </c>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="127">
+      <c r="S7" s="113"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="114">
         <v>44712</v>
       </c>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
+      <c r="V7" s="113"/>
+      <c r="W7" s="113"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="128" t="s">
+      <c r="Z7" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="115"/>
+      <c r="AC7" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="AA7" s="128"/>
-      <c r="AB7" s="128"/>
-      <c r="AC7" s="128" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD7" s="128"/>
+      <c r="AD7" s="115"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
     </row>
-    <row r="8" spans="1:41" s="14" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J8" s="99" t="s">
+    <row r="8" spans="1:41" s="14" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-    </row>
-    <row r="9" spans="1:41" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="123" t="s">
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+    </row>
+    <row r="9" spans="1:41" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="T9" s="91" t="s">
+      <c r="T9" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91" t="s">
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="106" t="s">
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="AD9" s="106"/>
-    </row>
-    <row r="10" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="124"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="28" t="s">
+      <c r="AD9" s="91"/>
+    </row>
+    <row r="10" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="118"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="58" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -5042,13 +5048,13 @@
       <c r="E10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="47" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="28" t="s">
@@ -5057,19 +5063,19 @@
       <c r="J10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="58" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="52" t="s">
+      <c r="M10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="52" t="s">
+      <c r="N10" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="52" t="s">
+      <c r="O10" s="47" t="s">
         <v>23</v>
       </c>
       <c r="P10" s="28" t="s">
@@ -5081,53 +5087,53 @@
       <c r="R10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="91"/>
-      <c r="T10" s="125" t="s">
+      <c r="S10" s="64"/>
+      <c r="T10" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="U10" s="125" t="s">
+      <c r="U10" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="V10" s="125" t="s">
+      <c r="V10" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="W10" s="96" t="s">
+      <c r="W10" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="X10" s="96" t="s">
+      <c r="X10" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="Y10" s="96" t="s">
+      <c r="Y10" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="Z10" s="96" t="s">
+      <c r="Z10" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="AA10" s="96" t="s">
+      <c r="AA10" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="AB10" s="96" t="s">
+      <c r="AB10" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="106"/>
-    </row>
-    <row r="11" spans="1:41" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="124"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="61" t="s">
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="91"/>
+    </row>
+    <row r="11" spans="1:41" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="118"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="52" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="28" t="s">
@@ -5136,19 +5142,19 @@
       <c r="I11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="61" t="s">
+      <c r="K11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="61" t="s">
+      <c r="L11" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="61" t="s">
+      <c r="M11" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="61" t="s">
+      <c r="N11" s="52" t="s">
         <v>37</v>
       </c>
       <c r="O11" s="28" t="s">
@@ -5157,57 +5163,57 @@
       <c r="P11" s="28">
         <v>29</v>
       </c>
-      <c r="Q11" s="61">
+      <c r="Q11" s="52">
         <v>30</v>
       </c>
       <c r="R11" s="34">
         <v>31</v>
       </c>
-      <c r="S11" s="91"/>
-      <c r="T11" s="125"/>
-      <c r="U11" s="125"/>
-      <c r="V11" s="125"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96" t="s">
+      <c r="S11" s="64"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="AD11" s="96" t="s">
+      <c r="AD11" s="97" t="s">
         <v>118</v>
       </c>
       <c r="AE11" s="23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="115">
+      <c r="C12" s="76">
         <v>3</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="115"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
       <c r="S12" s="21">
         <v>4</v>
       </c>
@@ -5246,11 +5252,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="79">
+    <row r="13" spans="1:41" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72">
         <v>1</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="73" t="s">
         <v>103</v>
       </c>
       <c r="C13" s="33" t="s">
@@ -5266,10 +5272,10 @@
         <v>116</v>
       </c>
       <c r="G13" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>184</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>39</v>
@@ -5290,10 +5296,10 @@
         <v>116</v>
       </c>
       <c r="O13" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="P13" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P13" s="38" t="s">
-        <v>184</v>
       </c>
       <c r="Q13" s="33" t="s">
         <v>39</v>
@@ -5301,39 +5307,39 @@
       <c r="R13" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="S13" s="68" t="s">
+      <c r="S13" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="T13" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="W13" s="68" t="s">
+      <c r="T13" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="W13" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="X13" s="69" t="s">
+      <c r="X13" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="69" t="s">
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="80"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="AD13" s="69" t="s">
+      <c r="AD13" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="AE13" s="69" t="s">
+      <c r="AE13" s="82" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="79"/>
-      <c r="B14" s="80"/>
+    <row r="14" spans="1:41" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="33" t="s">
         <v>39</v>
       </c>
@@ -5350,11 +5356,11 @@
         <v>116</v>
       </c>
       <c r="H14" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="I14" s="38" t="s">
-        <v>184</v>
-      </c>
       <c r="J14" s="33" t="s">
         <v>39</v>
       </c>
@@ -5367,40 +5373,40 @@
       <c r="M14" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="N14" s="58" t="s">
+      <c r="N14" s="51" t="s">
         <v>39</v>
       </c>
       <c r="O14" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P14" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q14" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="Q14" s="38" t="s">
-        <v>184</v>
-      </c>
       <c r="R14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="122"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-    </row>
-    <row r="15" spans="1:41" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="79">
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="84"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+    </row>
+    <row r="15" spans="1:41" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72">
         <v>2</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="73" t="s">
         <v>104</v>
       </c>
       <c r="C15" s="33" t="s">
@@ -5415,10 +5421,10 @@
       <c r="F15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="53" t="s">
+      <c r="G15" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="48" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="33" t="s">
@@ -5446,42 +5452,42 @@
         <v>116</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="S15" s="68" t="s">
+      <c r="S15" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="T15" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73" t="s">
+      <c r="T15" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70" t="s">
+      <c r="W15" s="80"/>
+      <c r="X15" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="80"/>
       <c r="AA15" s="29"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70" t="s">
+      <c r="AB15" s="80"/>
+      <c r="AC15" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="AD15" s="69" t="s">
+      <c r="AD15" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="AE15" s="118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="79"/>
-      <c r="B16" s="80"/>
+      <c r="AE15" s="123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="72"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="38" t="s">
         <v>127</v>
       </c>
@@ -5504,11 +5510,11 @@
         <v>116</v>
       </c>
       <c r="J16" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="K16" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="K16" s="38" t="s">
-        <v>184</v>
-      </c>
       <c r="L16" s="33" t="s">
         <v>39</v>
       </c>
@@ -5521,47 +5527,47 @@
       <c r="O16" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="P16" s="58" t="s">
+      <c r="P16" s="51" t="s">
         <v>39</v>
       </c>
       <c r="Q16" s="36" t="s">
         <v>116</v>
       </c>
       <c r="R16" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="S16" s="68"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
+        <v>181</v>
+      </c>
+      <c r="S16" s="83"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
       <c r="AA16" s="30"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="119"/>
-    </row>
-    <row r="17" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="79">
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="124"/>
+    </row>
+    <row r="17" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="72">
         <v>3</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>116</v>
       </c>
       <c r="E17" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>18</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>39</v>
@@ -5582,10 +5588,10 @@
         <v>137</v>
       </c>
       <c r="M17" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="N17" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="N17" s="38" t="s">
-        <v>18</v>
       </c>
       <c r="O17" s="33" t="s">
         <v>39</v>
@@ -5599,39 +5605,39 @@
       <c r="R17" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="S17" s="68" t="s">
+      <c r="S17" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="T17" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70" t="s">
+      <c r="T17" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70" t="s">
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD17" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE17" s="69" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-      <c r="B18" s="80"/>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD17" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE17" s="82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="33" t="s">
         <v>100</v>
       </c>
@@ -5642,7 +5648,7 @@
         <v>116</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>18</v>
@@ -5659,7 +5665,7 @@
       <c r="K18" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="62" t="s">
+      <c r="L18" s="53" t="s">
         <v>49</v>
       </c>
       <c r="M18" s="33" t="s">
@@ -5680,32 +5686,32 @@
       <c r="R18" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="S18" s="68"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-    </row>
-    <row r="19" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="79">
+      <c r="S18" s="83"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="82"/>
+    </row>
+    <row r="19" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72">
         <v>4</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="53" t="s">
         <v>133</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>39</v>
@@ -5726,11 +5732,11 @@
         <v>116</v>
       </c>
       <c r="K19" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="L19" s="38" t="s">
-        <v>18</v>
-      </c>
       <c r="M19" s="33" t="s">
         <v>39</v>
       </c>
@@ -5743,53 +5749,53 @@
       <c r="P19" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="Q19" s="62" t="s">
+      <c r="Q19" s="53" t="s">
         <v>39</v>
       </c>
       <c r="R19" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="S19" s="73" t="s">
+      <c r="S19" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="T19" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="W19" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="X19" s="70" t="s">
+      <c r="T19" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="W19" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="X19" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="70"/>
-      <c r="AB19" s="70"/>
-      <c r="AC19" s="69" t="s">
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="AD19" s="69" t="s">
+      <c r="AD19" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="AE19" s="69" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="79"/>
-      <c r="B20" s="80"/>
+      <c r="AE19" s="82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="72"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="36" t="s">
         <v>116</v>
       </c>
       <c r="D20" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>18</v>
       </c>
       <c r="F20" s="33" t="s">
         <v>39</v>
@@ -5810,11 +5816,11 @@
         <v>116</v>
       </c>
       <c r="L20" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="M20" s="38" t="s">
-        <v>18</v>
-      </c>
       <c r="N20" s="33" t="s">
         <v>39</v>
       </c>
@@ -5830,32 +5836,32 @@
       <c r="R20" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-    </row>
-    <row r="21" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="79">
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="84"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="84"/>
+      <c r="AC20" s="106"/>
+      <c r="AD20" s="82"/>
+      <c r="AE20" s="82"/>
+    </row>
+    <row r="21" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="72">
         <v>5</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="53" t="s">
         <v>133</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>39</v>
@@ -5876,11 +5882,11 @@
         <v>116</v>
       </c>
       <c r="K21" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="L21" s="38" t="s">
-        <v>18</v>
-      </c>
       <c r="M21" s="33" t="s">
         <v>39</v>
       </c>
@@ -5893,53 +5899,53 @@
       <c r="P21" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="Q21" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="R21" s="62" t="s">
+      <c r="Q21" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="S21" s="73" t="s">
+      <c r="S21" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="T21" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="W21" s="73" t="s">
+      <c r="T21" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="W21" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="X21" s="70" t="s">
+      <c r="X21" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="70"/>
-      <c r="AB21" s="70"/>
-      <c r="AC21" s="69" t="s">
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="AD21" s="69" t="s">
+      <c r="AD21" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="AE21" s="69" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="79"/>
-      <c r="B22" s="80"/>
+      <c r="AE21" s="82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="72"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="36" t="s">
         <v>116</v>
       </c>
       <c r="D22" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>18</v>
       </c>
       <c r="F22" s="33" t="s">
         <v>39</v>
@@ -5960,11 +5966,11 @@
         <v>116</v>
       </c>
       <c r="L22" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="M22" s="38" t="s">
-        <v>18</v>
-      </c>
       <c r="N22" s="33" t="s">
         <v>39</v>
       </c>
@@ -5980,38 +5986,38 @@
       <c r="R22" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="83"/>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="69"/>
-    </row>
-    <row r="23" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="79">
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="84"/>
+      <c r="AA22" s="84"/>
+      <c r="AB22" s="84"/>
+      <c r="AC22" s="106"/>
+      <c r="AD22" s="82"/>
+      <c r="AE22" s="82"/>
+    </row>
+    <row r="23" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="72">
         <v>6</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="53" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="36" t="s">
         <v>116</v>
       </c>
       <c r="E23" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>18</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>39</v>
@@ -6032,11 +6038,11 @@
         <v>116</v>
       </c>
       <c r="M23" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="N23" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="N23" s="38" t="s">
-        <v>18</v>
-      </c>
       <c r="O23" s="33" t="s">
         <v>39</v>
       </c>
@@ -6046,42 +6052,42 @@
       <c r="Q23" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="R23" s="62" t="s">
+      <c r="R23" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="S23" s="68" t="s">
+      <c r="S23" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="T23" s="73" t="s">
-        <v>176</v>
-      </c>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="W23" s="70"/>
-      <c r="X23" s="70" t="s">
+      <c r="T23" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="Y23" s="70"/>
-      <c r="Z23" s="70" t="s">
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="AA23" s="70"/>
-      <c r="AB23" s="70"/>
-      <c r="AC23" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD23" s="69" t="s">
+      <c r="AA23" s="80"/>
+      <c r="AB23" s="80"/>
+      <c r="AC23" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD23" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AE23" s="69" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="79"/>
-      <c r="B24" s="80"/>
+      <c r="AE23" s="82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="72"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="33" t="s">
         <v>100</v>
       </c>
@@ -6092,11 +6098,11 @@
         <v>116</v>
       </c>
       <c r="F24" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="G24" s="38" t="s">
-        <v>18</v>
-      </c>
       <c r="H24" s="33" t="s">
         <v>39</v>
       </c>
@@ -6109,17 +6115,17 @@
       <c r="K24" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="L24" s="62" t="s">
+      <c r="L24" s="53" t="s">
         <v>39</v>
       </c>
       <c r="M24" s="36" t="s">
         <v>116</v>
       </c>
       <c r="N24" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="O24" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="O24" s="38" t="s">
-        <v>18</v>
       </c>
       <c r="P24" s="33" t="s">
         <v>39</v>
@@ -6130,25 +6136,25 @@
       <c r="R24" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="S24" s="68"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="71"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="69"/>
-      <c r="AE24" s="69"/>
-    </row>
-    <row r="25" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="79">
+      <c r="S24" s="83"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="84"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="84"/>
+      <c r="Z24" s="84"/>
+      <c r="AA24" s="84"/>
+      <c r="AB24" s="84"/>
+      <c r="AC24" s="84"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="82"/>
+    </row>
+    <row r="25" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="72">
         <v>7</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="73" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="33" t="s">
@@ -6164,10 +6170,10 @@
         <v>116</v>
       </c>
       <c r="G25" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>18</v>
       </c>
       <c r="I25" s="33" t="s">
         <v>39</v>
@@ -6188,50 +6194,50 @@
         <v>116</v>
       </c>
       <c r="O25" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="P25" s="38" t="s">
-        <v>18</v>
-      </c>
       <c r="Q25" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R25" s="62" t="s">
+      <c r="R25" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="S25" s="68" t="s">
+      <c r="S25" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="T25" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="W25" s="68" t="s">
+      <c r="T25" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="W25" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="X25" s="69" t="s">
+      <c r="X25" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="70"/>
-      <c r="AB25" s="69"/>
-      <c r="AC25" s="69" t="s">
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="80"/>
+      <c r="AB25" s="82"/>
+      <c r="AC25" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="AD25" s="69" t="s">
+      <c r="AD25" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="AE25" s="69" t="s">
+      <c r="AE25" s="82" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="79"/>
-      <c r="B26" s="80"/>
+    <row r="26" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="33" t="s">
         <v>39</v>
       </c>
@@ -6248,11 +6254,11 @@
         <v>116</v>
       </c>
       <c r="H26" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="I26" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="I26" s="38" t="s">
-        <v>18</v>
-      </c>
       <c r="J26" s="33" t="s">
         <v>39</v>
       </c>
@@ -6265,40 +6271,40 @@
       <c r="M26" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="N26" s="62" t="s">
+      <c r="N26" s="53" t="s">
         <v>39</v>
       </c>
       <c r="O26" s="36" t="s">
         <v>116</v>
       </c>
       <c r="P26" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q26" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="Q26" s="38" t="s">
-        <v>18</v>
-      </c>
       <c r="R26" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="69"/>
-      <c r="AC26" s="122"/>
-      <c r="AD26" s="69"/>
-      <c r="AE26" s="69"/>
-    </row>
-    <row r="27" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="79">
+      <c r="S26" s="83"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="83"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="84"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="116"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+    </row>
+    <row r="27" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="72">
         <v>8</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="73" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="33" t="s">
@@ -6349,78 +6355,78 @@
       <c r="R27" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="S27" s="68" t="s">
+      <c r="S27" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="68" t="s">
+      <c r="T27" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="W27" s="82"/>
+      <c r="X27" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y27" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="82"/>
+      <c r="AC27" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD27" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE27" s="82" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="72"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="N28" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y27" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="70"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD27" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE27" s="69" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="79"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J28" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="33" t="s">
+      <c r="O28" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="N28" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="O28" s="38" t="s">
-        <v>18</v>
-      </c>
       <c r="P28" s="33" t="s">
         <v>39</v>
       </c>
@@ -6430,25 +6436,25 @@
       <c r="R28" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="71"/>
-      <c r="AB28" s="69"/>
-      <c r="AC28" s="69"/>
-      <c r="AD28" s="69"/>
-      <c r="AE28" s="69"/>
-    </row>
-    <row r="29" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="79">
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="84"/>
+      <c r="AB28" s="82"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="82"/>
+      <c r="AE28" s="82"/>
+    </row>
+    <row r="29" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="72">
         <v>9</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="73" t="s">
         <v>110</v>
       </c>
       <c r="C29" s="33" t="s">
@@ -6470,10 +6476,10 @@
         <v>116</v>
       </c>
       <c r="I29" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="J29" s="38" t="s">
-        <v>18</v>
       </c>
       <c r="K29" s="33" t="s">
         <v>39</v>
@@ -6499,41 +6505,41 @@
       <c r="R29" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="S29" s="72" t="s">
+      <c r="S29" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="T29" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72" t="s">
+      <c r="T29" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="W29" s="72"/>
-      <c r="X29" s="84" t="s">
+      <c r="W29" s="111"/>
+      <c r="X29" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="Y29" s="84" t="s">
+      <c r="Y29" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="Z29" s="69" t="s">
+      <c r="Z29" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="AA29" s="70"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="69" t="s">
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="82"/>
+      <c r="AC29" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="AD29" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE29" s="69" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="79"/>
-      <c r="B30" s="80"/>
+      <c r="AD29" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE29" s="82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="72"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="33" t="s">
         <v>48</v>
       </c>
@@ -6582,25 +6588,25 @@
       <c r="R30" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="72"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="69"/>
-    </row>
-    <row r="31" spans="1:31" s="27" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="107">
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="107"/>
+      <c r="Y30" s="107"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="84"/>
+      <c r="AB30" s="82"/>
+      <c r="AC30" s="82"/>
+      <c r="AD30" s="82"/>
+      <c r="AE30" s="82"/>
+    </row>
+    <row r="31" spans="1:31" s="27" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="85">
         <v>10</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="73" t="s">
         <v>111</v>
       </c>
       <c r="C31" s="33" t="s">
@@ -6648,42 +6654,42 @@
       <c r="Q31" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R31" s="50" t="s">
+      <c r="R31" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="S31" s="68" t="s">
+      <c r="S31" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="T31" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68" t="s">
+      <c r="T31" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="U31" s="83"/>
+      <c r="V31" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="W31" s="69"/>
-      <c r="X31" s="69" t="s">
+      <c r="W31" s="82"/>
+      <c r="X31" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="Y31" s="69" t="s">
+      <c r="Y31" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="70"/>
-      <c r="AB31" s="69"/>
-      <c r="AC31" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD31" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE31" s="69" t="s">
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="80"/>
+      <c r="AB31" s="82"/>
+      <c r="AC31" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD31" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE31" s="82" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:31" s="27" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="107"/>
-      <c r="B32" s="80"/>
+    <row r="32" spans="1:31" s="27" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="85"/>
+      <c r="B32" s="73"/>
       <c r="C32" s="33" t="s">
         <v>18</v>
       </c>
@@ -6723,34 +6729,34 @@
       <c r="O32" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="P32" s="62" t="s">
+      <c r="P32" s="53" t="s">
         <v>39</v>
       </c>
       <c r="Q32" s="36" t="s">
         <v>116</v>
       </c>
       <c r="R32" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="69"/>
-      <c r="X32" s="69"/>
-      <c r="Y32" s="69"/>
-      <c r="Z32" s="69"/>
-      <c r="AA32" s="71"/>
-      <c r="AB32" s="69"/>
-      <c r="AC32" s="69"/>
-      <c r="AD32" s="71"/>
-      <c r="AE32" s="69"/>
-    </row>
-    <row r="33" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="79">
+        <v>181</v>
+      </c>
+      <c r="S32" s="83"/>
+      <c r="T32" s="83"/>
+      <c r="U32" s="83"/>
+      <c r="V32" s="83"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="84"/>
+      <c r="AB32" s="82"/>
+      <c r="AC32" s="82"/>
+      <c r="AD32" s="84"/>
+      <c r="AE32" s="82"/>
+    </row>
+    <row r="33" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="72">
         <v>11</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="73" t="s">
         <v>130</v>
       </c>
       <c r="C33" s="33" t="s">
@@ -6772,10 +6778,10 @@
         <v>116</v>
       </c>
       <c r="I33" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="J33" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="J33" s="38" t="s">
-        <v>18</v>
       </c>
       <c r="K33" s="33" t="s">
         <v>39</v>
@@ -6796,42 +6802,42 @@
         <v>116</v>
       </c>
       <c r="Q33" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="R33" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="R33" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="S33" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="T33" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69" t="s">
+      <c r="S33" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="T33" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="U33" s="83"/>
+      <c r="V33" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="W33" s="82"/>
+      <c r="X33" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="70"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD33" s="69" t="s">
+      <c r="Y33" s="82"/>
+      <c r="Z33" s="82"/>
+      <c r="AA33" s="80"/>
+      <c r="AB33" s="82"/>
+      <c r="AC33" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD33" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE33" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="AE33" s="69" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="79"/>
-      <c r="B34" s="80"/>
+    </row>
+    <row r="34" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="72"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="38" t="s">
         <v>127</v>
       </c>
@@ -6854,39 +6860,39 @@
         <v>116</v>
       </c>
       <c r="J34" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="K34" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="K34" s="38" t="s">
-        <v>18</v>
-      </c>
       <c r="L34" s="33" t="s">
         <v>39</v>
       </c>
       <c r="M34" s="33"/>
-      <c r="N34" s="50"/>
+      <c r="N34" s="46"/>
       <c r="O34" s="36"/>
       <c r="P34" s="33"/>
       <c r="Q34" s="38"/>
       <c r="R34" s="33"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="69"/>
-      <c r="X34" s="69"/>
-      <c r="Y34" s="69"/>
-      <c r="Z34" s="69"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="69"/>
-      <c r="AC34" s="69"/>
-      <c r="AD34" s="69"/>
-      <c r="AE34" s="69"/>
-    </row>
-    <row r="35" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="79">
+      <c r="S34" s="83"/>
+      <c r="T34" s="83"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="82"/>
+      <c r="X34" s="82"/>
+      <c r="Y34" s="82"/>
+      <c r="Z34" s="82"/>
+      <c r="AA34" s="84"/>
+      <c r="AB34" s="82"/>
+      <c r="AC34" s="82"/>
+      <c r="AD34" s="82"/>
+      <c r="AE34" s="82"/>
+    </row>
+    <row r="35" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="72">
         <v>12</v>
       </c>
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="119" t="s">
         <v>112</v>
       </c>
       <c r="C35" s="33" t="s">
@@ -6937,31 +6943,31 @@
       <c r="R35" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="S35" s="68" t="s">
+      <c r="S35" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="T35" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="69" t="s">
+      <c r="T35" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="U35" s="83"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="83"/>
+      <c r="X35" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="Y35" s="69" t="s">
+      <c r="Y35" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="Z35" s="69"/>
+      <c r="Z35" s="82"/>
       <c r="AA35" s="31"/>
       <c r="AB35" s="120"/>
-      <c r="AC35" s="69"/>
-      <c r="AD35" s="69"/>
-      <c r="AE35" s="69"/>
-    </row>
-    <row r="36" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="79"/>
-      <c r="B36" s="117"/>
+      <c r="AC35" s="82"/>
+      <c r="AD35" s="82"/>
+      <c r="AE35" s="82"/>
+    </row>
+    <row r="36" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="72"/>
+      <c r="B36" s="119"/>
       <c r="C36" s="33" t="s">
         <v>48</v>
       </c>
@@ -7010,26 +7016,26 @@
       <c r="R36" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="S36" s="68"/>
-      <c r="T36" s="81"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68"/>
-      <c r="X36" s="69"/>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="69"/>
+      <c r="S36" s="83"/>
+      <c r="T36" s="105"/>
+      <c r="U36" s="83"/>
+      <c r="V36" s="83"/>
+      <c r="W36" s="83"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="82"/>
       <c r="AA36" s="32"/>
       <c r="AB36" s="121"/>
-      <c r="AC36" s="81"/>
-      <c r="AD36" s="69"/>
-      <c r="AE36" s="69"/>
-    </row>
-    <row r="37" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="79">
+      <c r="AC36" s="105"/>
+      <c r="AD36" s="82"/>
+      <c r="AE36" s="82"/>
+    </row>
+    <row r="37" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="72">
         <v>13</v>
       </c>
-      <c r="B37" s="117" t="s">
-        <v>145</v>
+      <c r="B37" s="119" t="s">
+        <v>144</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>39</v>
@@ -7076,32 +7082,32 @@
       <c r="Q37" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R37" s="50" t="s">
+      <c r="R37" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="S37" s="68" t="s">
+      <c r="S37" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="T37" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="69" t="s">
+      <c r="T37" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="U37" s="83"/>
+      <c r="V37" s="83"/>
+      <c r="W37" s="83"/>
+      <c r="X37" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="69"/>
+      <c r="Y37" s="82"/>
+      <c r="Z37" s="82"/>
       <c r="AA37" s="31"/>
       <c r="AB37" s="120"/>
-      <c r="AC37" s="69"/>
-      <c r="AD37" s="69"/>
-      <c r="AE37" s="69"/>
-    </row>
-    <row r="38" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="79"/>
-      <c r="B38" s="117"/>
+      <c r="AC37" s="82"/>
+      <c r="AD37" s="82"/>
+      <c r="AE37" s="82"/>
+    </row>
+    <row r="38" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="72"/>
+      <c r="B38" s="119"/>
       <c r="C38" s="33" t="s">
         <v>120</v>
       </c>
@@ -7150,26 +7156,26 @@
       <c r="R38" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="S38" s="68"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
-      <c r="W38" s="68"/>
-      <c r="X38" s="69"/>
-      <c r="Y38" s="69"/>
-      <c r="Z38" s="69"/>
+      <c r="S38" s="83"/>
+      <c r="T38" s="105"/>
+      <c r="U38" s="83"/>
+      <c r="V38" s="83"/>
+      <c r="W38" s="83"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="82"/>
       <c r="AA38" s="32"/>
       <c r="AB38" s="121"/>
-      <c r="AC38" s="81"/>
-      <c r="AD38" s="69"/>
-      <c r="AE38" s="69"/>
-    </row>
-    <row r="39" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="79">
+      <c r="AC38" s="105"/>
+      <c r="AD38" s="82"/>
+      <c r="AE38" s="82"/>
+    </row>
+    <row r="39" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="72">
         <v>14</v>
       </c>
-      <c r="B39" s="117" t="s">
-        <v>181</v>
+      <c r="B39" s="122" t="s">
+        <v>179</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>39</v>
@@ -7216,32 +7222,32 @@
       <c r="Q39" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R39" s="62" t="s">
+      <c r="R39" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="S39" s="68" t="s">
+      <c r="S39" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="T39" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
-      <c r="W39" s="68"/>
-      <c r="X39" s="69" t="s">
+      <c r="T39" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="U39" s="83"/>
+      <c r="V39" s="83"/>
+      <c r="W39" s="83"/>
+      <c r="X39" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="Y39" s="69"/>
-      <c r="Z39" s="69"/>
-      <c r="AA39" s="70"/>
-      <c r="AB39" s="69"/>
-      <c r="AC39" s="69"/>
-      <c r="AD39" s="69"/>
-      <c r="AE39" s="69"/>
-    </row>
-    <row r="40" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="79"/>
-      <c r="B40" s="117"/>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="82"/>
+      <c r="AA39" s="80"/>
+      <c r="AB39" s="82"/>
+      <c r="AC39" s="82"/>
+      <c r="AD39" s="82"/>
+      <c r="AE39" s="82"/>
+    </row>
+    <row r="40" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="72"/>
+      <c r="B40" s="122"/>
       <c r="C40" s="33" t="s">
         <v>18</v>
       </c>
@@ -7290,25 +7296,25 @@
       <c r="R40" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="S40" s="68"/>
-      <c r="T40" s="81"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="69"/>
-      <c r="Y40" s="69"/>
-      <c r="Z40" s="69"/>
-      <c r="AA40" s="71"/>
-      <c r="AB40" s="69"/>
-      <c r="AC40" s="81"/>
-      <c r="AD40" s="69"/>
-      <c r="AE40" s="69"/>
-    </row>
-    <row r="41" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="79">
+      <c r="S40" s="83"/>
+      <c r="T40" s="105"/>
+      <c r="U40" s="83"/>
+      <c r="V40" s="83"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="82"/>
+      <c r="Y40" s="82"/>
+      <c r="Z40" s="82"/>
+      <c r="AA40" s="84"/>
+      <c r="AB40" s="82"/>
+      <c r="AC40" s="105"/>
+      <c r="AD40" s="82"/>
+      <c r="AE40" s="82"/>
+    </row>
+    <row r="41" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="72">
         <v>15</v>
       </c>
-      <c r="B41" s="117" t="s">
+      <c r="B41" s="122" t="s">
         <v>123</v>
       </c>
       <c r="C41" s="33" t="s">
@@ -7356,34 +7362,34 @@
       <c r="Q41" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R41" s="62" t="s">
+      <c r="R41" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="S41" s="68" t="s">
+      <c r="S41" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="T41" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="68"/>
-      <c r="X41" s="69" t="s">
+      <c r="T41" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="U41" s="83"/>
+      <c r="V41" s="83"/>
+      <c r="W41" s="83"/>
+      <c r="X41" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="Y41" s="69"/>
-      <c r="Z41" s="69"/>
-      <c r="AA41" s="70" t="s">
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="AB41" s="69"/>
-      <c r="AC41" s="69"/>
-      <c r="AD41" s="69"/>
-      <c r="AE41" s="69"/>
-    </row>
-    <row r="42" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="79"/>
-      <c r="B42" s="117"/>
+      <c r="AB41" s="82"/>
+      <c r="AC41" s="82"/>
+      <c r="AD41" s="82"/>
+      <c r="AE41" s="82"/>
+    </row>
+    <row r="42" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="72"/>
+      <c r="B42" s="122"/>
       <c r="C42" s="33" t="s">
         <v>18</v>
       </c>
@@ -7432,25 +7438,25 @@
       <c r="R42" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="S42" s="68"/>
-      <c r="T42" s="81"/>
-      <c r="U42" s="68"/>
-      <c r="V42" s="68"/>
-      <c r="W42" s="68"/>
-      <c r="X42" s="69"/>
-      <c r="Y42" s="69"/>
-      <c r="Z42" s="69"/>
-      <c r="AA42" s="71"/>
-      <c r="AB42" s="69"/>
-      <c r="AC42" s="81"/>
-      <c r="AD42" s="69"/>
-      <c r="AE42" s="69"/>
-    </row>
-    <row r="43" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="79">
+      <c r="S42" s="83"/>
+      <c r="T42" s="105"/>
+      <c r="U42" s="83"/>
+      <c r="V42" s="83"/>
+      <c r="W42" s="83"/>
+      <c r="X42" s="82"/>
+      <c r="Y42" s="82"/>
+      <c r="Z42" s="82"/>
+      <c r="AA42" s="84"/>
+      <c r="AB42" s="82"/>
+      <c r="AC42" s="105"/>
+      <c r="AD42" s="82"/>
+      <c r="AE42" s="82"/>
+    </row>
+    <row r="43" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="72">
         <v>16</v>
       </c>
-      <c r="B43" s="117" t="s">
+      <c r="B43" s="122" t="s">
         <v>122</v>
       </c>
       <c r="C43" s="33" t="s">
@@ -7498,32 +7504,32 @@
       <c r="Q43" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="R43" s="62" t="s">
+      <c r="R43" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="S43" s="68" t="s">
+      <c r="S43" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="T43" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="U43" s="68"/>
-      <c r="V43" s="68"/>
-      <c r="W43" s="68"/>
-      <c r="X43" s="69" t="s">
+      <c r="T43" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="U43" s="83"/>
+      <c r="V43" s="83"/>
+      <c r="W43" s="83"/>
+      <c r="X43" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="Y43" s="69"/>
-      <c r="Z43" s="69"/>
-      <c r="AA43" s="70"/>
-      <c r="AB43" s="69"/>
-      <c r="AC43" s="69"/>
-      <c r="AD43" s="69"/>
-      <c r="AE43" s="69"/>
-    </row>
-    <row r="44" spans="1:31" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="79"/>
-      <c r="B44" s="117"/>
+      <c r="Y43" s="82"/>
+      <c r="Z43" s="82"/>
+      <c r="AA43" s="80"/>
+      <c r="AB43" s="82"/>
+      <c r="AC43" s="82"/>
+      <c r="AD43" s="82"/>
+      <c r="AE43" s="82"/>
+    </row>
+    <row r="44" spans="1:31" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="72"/>
+      <c r="B44" s="122"/>
       <c r="C44" s="33" t="s">
         <v>18</v>
       </c>
@@ -7572,21 +7578,21 @@
       <c r="R44" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="S44" s="68"/>
-      <c r="T44" s="81"/>
-      <c r="U44" s="68"/>
-      <c r="V44" s="68"/>
-      <c r="W44" s="68"/>
-      <c r="X44" s="69"/>
-      <c r="Y44" s="69"/>
-      <c r="Z44" s="69"/>
-      <c r="AA44" s="71"/>
-      <c r="AB44" s="69"/>
-      <c r="AC44" s="81"/>
-      <c r="AD44" s="69"/>
-      <c r="AE44" s="69"/>
-    </row>
-    <row r="45" spans="1:31" ht="5.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S44" s="83"/>
+      <c r="T44" s="105"/>
+      <c r="U44" s="83"/>
+      <c r="V44" s="83"/>
+      <c r="W44" s="83"/>
+      <c r="X44" s="82"/>
+      <c r="Y44" s="82"/>
+      <c r="Z44" s="82"/>
+      <c r="AA44" s="84"/>
+      <c r="AB44" s="82"/>
+      <c r="AC44" s="105"/>
+      <c r="AD44" s="82"/>
+      <c r="AE44" s="82"/>
+    </row>
+    <row r="45" spans="1:31" ht="5.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="18"/>
@@ -7619,32 +7625,32 @@
       <c r="AD45" s="19"/>
       <c r="AE45" s="19"/>
     </row>
-    <row r="46" spans="1:31" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="114" t="s">
+    <row r="46" spans="1:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="114"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="108" t="s">
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="109"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="Q46" s="88" t="s">
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+      <c r="Q46" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="R46" s="88"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="88"/>
-      <c r="U46" s="88"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="70"/>
+      <c r="T46" s="70"/>
+      <c r="U46" s="70"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6" t="s">
         <v>60</v>
@@ -7658,32 +7664,32 @@
       <c r="AD46" s="19"/>
       <c r="AE46" s="19"/>
     </row>
-    <row r="47" spans="1:31" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="114"/>
-      <c r="B47" s="114"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="86" t="s">
+    <row r="47" spans="1:31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="69"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
-      <c r="M47" s="87" t="s">
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="M47" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N47" s="87"/>
-      <c r="O47" s="87"/>
-      <c r="Q47" s="87" t="s">
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="Q47" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="R47" s="87"/>
-      <c r="S47" s="87"/>
-      <c r="T47" s="87"/>
-      <c r="U47" s="87"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
+      <c r="T47" s="71"/>
+      <c r="U47" s="71"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
@@ -7695,32 +7701,32 @@
       <c r="AD47" s="19"/>
       <c r="AE47" s="19"/>
     </row>
-    <row r="48" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="114" t="s">
+    <row r="48" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="114"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="108" t="s">
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
-      <c r="J48" s="108"/>
-      <c r="K48" s="108"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="Q48" s="88" t="s">
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="86"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="70"/>
+      <c r="Q48" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="R48" s="88"/>
-      <c r="S48" s="88"/>
-      <c r="T48" s="88"/>
-      <c r="U48" s="88"/>
+      <c r="R48" s="70"/>
+      <c r="S48" s="70"/>
+      <c r="T48" s="70"/>
+      <c r="U48" s="70"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6" t="s">
         <v>60</v>
@@ -7734,32 +7740,32 @@
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
     </row>
-    <row r="49" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="114"/>
-      <c r="B49" s="114"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="86" t="s">
+    <row r="49" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
-      <c r="M49" s="87" t="s">
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="M49" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N49" s="87"/>
-      <c r="O49" s="87"/>
-      <c r="Q49" s="87" t="s">
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="Q49" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="R49" s="87"/>
-      <c r="S49" s="87"/>
-      <c r="T49" s="87"/>
-      <c r="U49" s="87"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="71"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
@@ -7771,32 +7777,32 @@
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
     </row>
-    <row r="50" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="114" t="s">
+    <row r="50" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="108" t="s">
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="109"/>
-      <c r="K50" s="109"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
-      <c r="Q50" s="88" t="s">
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="70"/>
+      <c r="O50" s="70"/>
+      <c r="Q50" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="R50" s="88"/>
-      <c r="S50" s="88"/>
-      <c r="T50" s="88"/>
-      <c r="U50" s="88"/>
+      <c r="R50" s="70"/>
+      <c r="S50" s="70"/>
+      <c r="T50" s="70"/>
+      <c r="U50" s="70"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6" t="s">
         <v>60</v>
@@ -7810,32 +7816,32 @@
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
     </row>
-    <row r="51" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="114"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="105" t="s">
+    <row r="51" spans="1:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="69"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="105"/>
-      <c r="K51" s="105"/>
-      <c r="M51" s="112" t="s">
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="M51" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="N51" s="112"/>
-      <c r="O51" s="112"/>
-      <c r="Q51" s="87" t="s">
+      <c r="N51" s="63"/>
+      <c r="O51" s="63"/>
+      <c r="Q51" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="R51" s="87"/>
-      <c r="S51" s="87"/>
-      <c r="T51" s="87"/>
-      <c r="U51" s="87"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="71"/>
+      <c r="U51" s="71"/>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
@@ -7847,7 +7853,7 @@
       <c r="AD51" s="6"/>
       <c r="AE51" s="6"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -7880,7 +7886,7 @@
       <c r="AD52" s="6"/>
       <c r="AE52" s="6"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -7913,7 +7919,7 @@
       <c r="AD53" s="6"/>
       <c r="AE53" s="6"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -7946,7 +7952,7 @@
       <c r="AD54" s="6"/>
       <c r="AE54" s="6"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -7979,7 +7985,7 @@
       <c r="AD55" s="6"/>
       <c r="AE55" s="6"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -8014,42 +8020,238 @@
     </row>
   </sheetData>
   <mergeCells count="292">
-    <mergeCell ref="AA41:AA42"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AA21:AA22"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="AA39:AA40"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="S9:S11"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A3:AD3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="U5:W6"/>
-    <mergeCell ref="Z5:AD5"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="J8:R8"/>
-    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="AB39:AB40"/>
+    <mergeCell ref="AC39:AC40"/>
+    <mergeCell ref="AD39:AD40"/>
+    <mergeCell ref="AE39:AE40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="Y41:Y42"/>
+    <mergeCell ref="Z41:Z42"/>
+    <mergeCell ref="AB41:AB42"/>
+    <mergeCell ref="AC41:AC42"/>
+    <mergeCell ref="AD41:AD42"/>
+    <mergeCell ref="AE41:AE42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="Z39:Z40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="T41:T42"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="AE33:AE34"/>
+    <mergeCell ref="AE35:AE36"/>
+    <mergeCell ref="AE37:AE38"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="Z33:Z34"/>
+    <mergeCell ref="AE43:AE44"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AE17:AE18"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AE21:AE22"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AE25:AE26"/>
+    <mergeCell ref="AE27:AE28"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="Z43:Z44"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="AD43:AD44"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="A50:D51"/>
+    <mergeCell ref="E50:K50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="E51:K51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="A48:D49"/>
+    <mergeCell ref="E48:K48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="E49:K49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="V41:V42"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="X41:X42"/>
+    <mergeCell ref="A46:D47"/>
+    <mergeCell ref="E46:K46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="Q46:U46"/>
+    <mergeCell ref="E47:K47"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="X37:X38"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="Z37:Z38"/>
+    <mergeCell ref="AB37:AB38"/>
+    <mergeCell ref="AC37:AC38"/>
+    <mergeCell ref="AD37:AD38"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="T37:T38"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="W37:W38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="Y35:Y36"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="AB35:AB36"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="AB33:AB34"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AD33:AD34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="V33:V34"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="Z21:Z22"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="AD11"/>
@@ -8074,238 +8276,42 @@
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:R9"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="Z21:Z22"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="Z25:Z26"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="Y35:Y36"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="AB35:AB36"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="AB33:AB34"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AD33:AD34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="V33:V34"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="X37:X38"/>
-    <mergeCell ref="Y37:Y38"/>
-    <mergeCell ref="Z37:Z38"/>
-    <mergeCell ref="AB37:AB38"/>
-    <mergeCell ref="AC37:AC38"/>
-    <mergeCell ref="AD37:AD38"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="T37:T38"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="V37:V38"/>
-    <mergeCell ref="W37:W38"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="V41:V42"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="X41:X42"/>
-    <mergeCell ref="A46:D47"/>
-    <mergeCell ref="E46:K46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="Q46:U46"/>
-    <mergeCell ref="E47:K47"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="A50:D51"/>
-    <mergeCell ref="E50:K50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="E51:K51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="A48:D49"/>
-    <mergeCell ref="E48:K48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="E49:K49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="AE33:AE34"/>
-    <mergeCell ref="AE35:AE36"/>
-    <mergeCell ref="AE37:AE38"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="AE43:AE44"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AE17:AE18"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AE21:AE22"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AE25:AE26"/>
-    <mergeCell ref="AE27:AE28"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="Z43:Z44"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="AD43:AD44"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="AB39:AB40"/>
-    <mergeCell ref="AC39:AC40"/>
-    <mergeCell ref="AD39:AD40"/>
-    <mergeCell ref="AE39:AE40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="Y41:Y42"/>
-    <mergeCell ref="Z41:Z42"/>
-    <mergeCell ref="AB41:AB42"/>
-    <mergeCell ref="AC41:AC42"/>
-    <mergeCell ref="AD41:AD42"/>
-    <mergeCell ref="AE41:AE42"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="X39:X40"/>
-    <mergeCell ref="Y39:Y40"/>
-    <mergeCell ref="Z39:Z40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="T41:T42"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A3:AD3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="U5:W6"/>
+    <mergeCell ref="Z5:AD5"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="J8:R8"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AA41:AA42"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="AA39:AA40"/>
+    <mergeCell ref="AA23:AA24"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.11811023622047245" top="0.35433070866141736" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
@@ -8320,12 +8326,12 @@
       <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="132.5" customWidth="1"/>
+    <col min="1" max="1" width="132.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="12.9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>64</v>
       </c>
@@ -8333,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="12.9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>65</v>
       </c>
@@ -8341,7 +8347,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="12.9" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>66</v>
       </c>
@@ -8349,7 +8355,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="12.9" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>68</v>
       </c>
@@ -8357,7 +8363,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="12.9" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>69</v>
       </c>
@@ -8365,7 +8371,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="12.9" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>70</v>
       </c>
@@ -8373,7 +8379,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="12.9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>71</v>
       </c>
@@ -8381,7 +8387,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="12.9" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>72</v>
       </c>
@@ -8389,7 +8395,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="12.9" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>73</v>
       </c>
@@ -8397,7 +8403,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="12.9" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>74</v>
       </c>
@@ -8405,7 +8411,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="12.9" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>76</v>
       </c>
@@ -8413,7 +8419,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="12.9" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>78</v>
       </c>
@@ -8421,7 +8427,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="12.9" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>80</v>
       </c>
@@ -8429,7 +8435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="12.9" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>84</v>
       </c>
@@ -8437,7 +8443,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="12.9" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>86</v>
       </c>
